--- a/v2.xlsx
+++ b/v2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
   <si>
     <t>contorno</t>
   </si>
@@ -45,6 +45,45 @@
   </si>
   <si>
     <t>asa3</t>
+  </si>
+  <si>
+    <t>asa1 msm</t>
+  </si>
+  <si>
+    <t>asa2 msm</t>
+  </si>
+  <si>
+    <t>asa3 msm</t>
+  </si>
+  <si>
+    <t>detalhe 1</t>
+  </si>
+  <si>
+    <t>detalhe1 msm</t>
+  </si>
+  <si>
+    <t>detalhe 2</t>
+  </si>
+  <si>
+    <t>detalhe2 msm</t>
+  </si>
+  <si>
+    <t>detalhe 3</t>
+  </si>
+  <si>
+    <t>detalhe3 msm</t>
+  </si>
+  <si>
+    <t>detalhe 4</t>
+  </si>
+  <si>
+    <t>detalhe4 msm</t>
+  </si>
+  <si>
+    <t>detalhe 5</t>
+  </si>
+  <si>
+    <t>detalhe5 msm</t>
   </si>
 </sst>
 </file>
@@ -362,15 +401,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -380,8 +419,11 @@
       <c r="I1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -402,8 +444,16 @@
       <c r="J2">
         <v>-8.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M2">
+        <f>I2/17</f>
+        <v>0.11176470588235293</v>
+      </c>
+      <c r="N2">
+        <f>J2/17</f>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -411,7 +461,7 @@
         <v>14</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:F11" si="0">A3/17</f>
+        <f t="shared" ref="E3:F10" si="0">A3/17</f>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="F3">
@@ -424,8 +474,16 @@
       <c r="J3">
         <v>-11.6</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M3">
+        <f t="shared" ref="M3:M5" si="1">I3/17</f>
+        <v>0.21764705882352942</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N5" si="2">J3/17</f>
+        <v>-0.68235294117647061</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1.3</v>
       </c>
@@ -446,8 +504,16 @@
       <c r="J4">
         <v>-16.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M4">
+        <f t="shared" si="1"/>
+        <v>0.23529411764705882</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="2"/>
+        <v>-0.97058823529411764</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1.5</v>
       </c>
@@ -468,8 +534,16 @@
       <c r="J5">
         <v>-16</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M5">
+        <f t="shared" si="1"/>
+        <v>7.0588235294117646E-2</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="2"/>
+        <v>-0.94117647058823528</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1.8</v>
       </c>
@@ -487,8 +561,11 @@
       <c r="I6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -512,8 +589,20 @@
       <c r="K7">
         <v>90</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M7">
+        <f>I7/255</f>
+        <v>0.35294117647058826</v>
+      </c>
+      <c r="N7">
+        <f t="shared" ref="N7:O7" si="3">J7/255</f>
+        <v>0.35294117647058826</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="3"/>
+        <v>0.35294117647058826</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1.8</v>
       </c>
@@ -529,7 +618,7 @@
         <v>-0.49411764705882355</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1.2</v>
       </c>
@@ -547,8 +636,11 @@
       <c r="I9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1.2</v>
       </c>
@@ -570,8 +662,16 @@
       <c r="J10">
         <v>-8.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M10">
+        <f>I10/17</f>
+        <v>-0.11176470588235293</v>
+      </c>
+      <c r="N10">
+        <f>J10/17</f>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -585,14 +685,22 @@
         <v>-1</v>
       </c>
       <c r="I11">
-        <f t="shared" ref="I11:I13" si="1">-I3</f>
+        <f t="shared" ref="I11:I13" si="4">-I3</f>
         <v>-3.7</v>
       </c>
       <c r="J11">
         <v>-11.6</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M11">
+        <f t="shared" ref="M11:N13" si="5">I11/17</f>
+        <v>-0.21764705882352942</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="5"/>
+        <v>-0.68235294117647061</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -603,14 +711,22 @@
         <v>-0.94117647058823528</v>
       </c>
       <c r="I12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-4</v>
       </c>
       <c r="J12">
         <v>-16.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M12">
+        <f t="shared" si="5"/>
+        <v>-0.23529411764705882</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="5"/>
+        <v>-0.97058823529411764</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>70</v>
       </c>
@@ -627,14 +743,22 @@
         <v>-0.49411764705882355</v>
       </c>
       <c r="I13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1.2</v>
       </c>
       <c r="J13">
         <v>-16</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M13">
+        <f t="shared" si="5"/>
+        <v>-7.0588235294117646E-2</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="5"/>
+        <v>-0.94117647058823528</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E14">
         <v>-0.11764705882352941</v>
       </c>
@@ -644,8 +768,11 @@
       <c r="I14" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E15">
         <v>-0.10588235294117647</v>
       </c>
@@ -661,8 +788,20 @@
       <c r="K15">
         <v>90</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M15">
+        <f>I15/255</f>
+        <v>0.35294117647058826</v>
+      </c>
+      <c r="N15">
+        <f t="shared" ref="N15" si="6">J15/255</f>
+        <v>0.35294117647058826</v>
+      </c>
+      <c r="O15">
+        <f t="shared" ref="O15" si="7">K15/255</f>
+        <v>0.35294117647058826</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E16">
         <v>-8.8235294117647065E-2</v>
       </c>
@@ -670,7 +809,7 @@
         <v>0.58823529411764708</v>
       </c>
     </row>
-    <row r="17" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E17">
         <v>-7.6470588235294124E-2</v>
       </c>
@@ -680,8 +819,11 @@
       <c r="I17" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="M17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E18">
         <v>-5.8823529411764705E-2</v>
       </c>
@@ -694,8 +836,16 @@
       <c r="J18">
         <v>-8.5</v>
       </c>
-    </row>
-    <row r="19" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="M18">
+        <f>I18/17</f>
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <f>J18/17</f>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E19">
         <v>0</v>
       </c>
@@ -708,29 +858,259 @@
       <c r="J19">
         <v>-16</v>
       </c>
-    </row>
-    <row r="20" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="M19">
+        <f>I19/17</f>
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <f>J19/17</f>
+        <v>-0.94117647058823528</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>1</v>
       </c>
       <c r="I20" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="M20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E21">
         <f>A13/255</f>
         <v>0.27450980392156865</v>
       </c>
       <c r="F21">
-        <f t="shared" ref="F21:G21" si="2">B13/255</f>
+        <f t="shared" ref="F21:G21" si="8">B13/255</f>
         <v>0.27450980392156865</v>
       </c>
       <c r="G21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.27450980392156865</v>
       </c>
       <c r="I21" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" t="s">
+        <v>13</v>
+      </c>
+      <c r="M23" t="s">
+        <v>14</v>
+      </c>
+      <c r="P23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1.3</v>
+      </c>
+      <c r="B24">
+        <v>12</v>
+      </c>
+      <c r="D24">
+        <f>A24/17</f>
+        <v>7.6470588235294124E-2</v>
+      </c>
+      <c r="E24">
+        <f>B24/17</f>
+        <v>0.70588235294117652</v>
+      </c>
+      <c r="G24">
+        <v>1.8</v>
+      </c>
+      <c r="H24">
+        <v>7.5</v>
+      </c>
+      <c r="J24">
+        <f>G24/17</f>
+        <v>0.10588235294117647</v>
+      </c>
+      <c r="K24">
+        <f>H24/17</f>
+        <v>0.44117647058823528</v>
+      </c>
+      <c r="M24">
+        <v>2</v>
+      </c>
+      <c r="N24">
+        <v>-6.8</v>
+      </c>
+      <c r="P24">
+        <f>M24/17</f>
+        <v>0.11764705882352941</v>
+      </c>
+      <c r="Q24">
+        <f>N24/17</f>
+        <v>-0.39999999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>12</v>
+      </c>
+      <c r="D25">
+        <f>A25/17</f>
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <f>B25/17</f>
+        <v>0.70588235294117652</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>7.5</v>
+      </c>
+      <c r="J25">
+        <f>G25/17</f>
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <f>H25/17</f>
+        <v>0.44117647058823528</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>-6.8</v>
+      </c>
+      <c r="P25">
+        <f>M25/17</f>
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <f>N25/17</f>
+        <v>-0.39999999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" t="s">
+        <v>5</v>
+      </c>
+      <c r="M26" t="s">
+        <v>5</v>
+      </c>
+      <c r="P26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1.8</v>
+      </c>
+      <c r="B29">
+        <v>-8.4</v>
+      </c>
+      <c r="D29">
+        <f>A29/17</f>
+        <v>0.10588235294117647</v>
+      </c>
+      <c r="E29">
+        <f>B29/17</f>
+        <v>-0.49411764705882355</v>
+      </c>
+      <c r="G29">
+        <v>1.2</v>
+      </c>
+      <c r="H29">
+        <v>-16</v>
+      </c>
+      <c r="J29">
+        <f>G29/17</f>
+        <v>7.0588235294117646E-2</v>
+      </c>
+      <c r="K29">
+        <f>H29/17</f>
+        <v>-0.94117647058823528</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>-8.4</v>
+      </c>
+      <c r="D30">
+        <f>A30/17</f>
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <f>B30/17</f>
+        <v>-0.49411764705882355</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>-16</v>
+      </c>
+      <c r="J30">
+        <f>G30/17</f>
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <f>H30/17</f>
+        <v>-0.94117647058823528</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" t="s">
+        <v>5</v>
+      </c>
+      <c r="J31" t="s">
         <v>5</v>
       </c>
     </row>

--- a/v2.xlsx
+++ b/v2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CEFET\8o Periodo\Computacao Grafica\CG-Tp1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\Visual Studio 2013\Projects\CG-Tp1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="24">
   <si>
     <t>contorno</t>
   </si>
@@ -84,6 +84,18 @@
   </si>
   <si>
     <t>detalhe5 msm</t>
+  </si>
+  <si>
+    <t>meio contorno</t>
+  </si>
+  <si>
+    <t>ponta contorno</t>
+  </si>
+  <si>
+    <t>abaixo meio contorno</t>
+  </si>
+  <si>
+    <t>final contorno</t>
   </si>
 </sst>
 </file>
@@ -139,9 +151,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -179,7 +191,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -251,7 +263,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -401,15 +413,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:T68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="S36" sqref="S36:T37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -423,7 +435,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -452,8 +464,16 @@
         <f>J2/17</f>
         <v>-0.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O2">
+        <f>10000*M2</f>
+        <v>1117.6470588235293</v>
+      </c>
+      <c r="P2">
+        <f>10000*N2</f>
+        <v>-5000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -482,8 +502,16 @@
         <f t="shared" ref="N3:N5" si="2">J3/17</f>
         <v>-0.68235294117647061</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O3">
+        <f t="shared" ref="O3:O5" si="3">10000*M3</f>
+        <v>2176.4705882352941</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P5" si="4">10000*N3</f>
+        <v>-6823.5294117647063</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1.3</v>
       </c>
@@ -512,8 +540,16 @@
         <f t="shared" si="2"/>
         <v>-0.97058823529411764</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O4">
+        <f t="shared" si="3"/>
+        <v>2352.9411764705883</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="4"/>
+        <v>-9705.8823529411766</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1.5</v>
       </c>
@@ -542,8 +578,16 @@
         <f t="shared" si="2"/>
         <v>-0.94117647058823528</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O5">
+        <f t="shared" si="3"/>
+        <v>705.88235294117646</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="4"/>
+        <v>-9411.7647058823532</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1.8</v>
       </c>
@@ -564,8 +608,14 @@
       <c r="M6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O6">
+        <v>1117.6470588235293</v>
+      </c>
+      <c r="P6">
+        <v>-5000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -594,15 +644,15 @@
         <v>0.35294117647058826</v>
       </c>
       <c r="N7">
-        <f t="shared" ref="N7:O7" si="3">J7/255</f>
+        <f t="shared" ref="N7:O7" si="5">J7/255</f>
         <v>0.35294117647058826</v>
       </c>
       <c r="O7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.35294117647058826</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1.8</v>
       </c>
@@ -618,7 +668,7 @@
         <v>-0.49411764705882355</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1.2</v>
       </c>
@@ -640,7 +690,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1.2</v>
       </c>
@@ -671,7 +721,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -685,22 +735,22 @@
         <v>-1</v>
       </c>
       <c r="I11">
-        <f t="shared" ref="I11:I13" si="4">-I3</f>
+        <f t="shared" ref="I11:I13" si="6">-I3</f>
         <v>-3.7</v>
       </c>
       <c r="J11">
         <v>-11.6</v>
       </c>
       <c r="M11">
-        <f t="shared" ref="M11:N13" si="5">I11/17</f>
+        <f t="shared" ref="M11:N13" si="7">I11/17</f>
         <v>-0.21764705882352942</v>
       </c>
       <c r="N11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.68235294117647061</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -711,22 +761,22 @@
         <v>-0.94117647058823528</v>
       </c>
       <c r="I12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-4</v>
       </c>
       <c r="J12">
         <v>-16.5</v>
       </c>
       <c r="M12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.23529411764705882</v>
       </c>
       <c r="N12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.97058823529411764</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>70</v>
       </c>
@@ -743,22 +793,22 @@
         <v>-0.49411764705882355</v>
       </c>
       <c r="I13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-1.2</v>
       </c>
       <c r="J13">
         <v>-16</v>
       </c>
       <c r="M13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-7.0588235294117646E-2</v>
       </c>
       <c r="N13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.94117647058823528</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E14">
         <v>-0.11764705882352941</v>
       </c>
@@ -772,7 +822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E15">
         <v>-0.10588235294117647</v>
       </c>
@@ -793,15 +843,15 @@
         <v>0.35294117647058826</v>
       </c>
       <c r="N15">
-        <f t="shared" ref="N15" si="6">J15/255</f>
+        <f t="shared" ref="N15" si="8">J15/255</f>
         <v>0.35294117647058826</v>
       </c>
       <c r="O15">
-        <f t="shared" ref="O15" si="7">K15/255</f>
+        <f t="shared" ref="O15" si="9">K15/255</f>
         <v>0.35294117647058826</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E16">
         <v>-8.8235294117647065E-2</v>
       </c>
@@ -844,6 +894,14 @@
         <f>J18/17</f>
         <v>-0.5</v>
       </c>
+      <c r="O18">
+        <f>10000*M18</f>
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <f>10000*N18</f>
+        <v>-5000</v>
+      </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E19">
@@ -865,6 +923,14 @@
       <c r="N19">
         <f>J19/17</f>
         <v>-0.94117647058823528</v>
+      </c>
+      <c r="O19">
+        <f>10000*M19</f>
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <f>10000*N19</f>
+        <v>-9411.7647058823532</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
@@ -884,11 +950,11 @@
         <v>0.27450980392156865</v>
       </c>
       <c r="F21">
-        <f t="shared" ref="F21:G21" si="8">B13/255</f>
+        <f t="shared" ref="F21:G21" si="10">B13/255</f>
         <v>0.27450980392156865</v>
       </c>
       <c r="G21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.27450980392156865</v>
       </c>
       <c r="I21" t="s">
@@ -1112,6 +1178,613 @@
       </c>
       <c r="J31" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>21</v>
+      </c>
+      <c r="G35" t="s">
+        <v>10</v>
+      </c>
+      <c r="L35" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0.9</v>
+      </c>
+      <c r="D36">
+        <f>10000*B36</f>
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <f>10000*C36</f>
+        <v>9000</v>
+      </c>
+      <c r="G36">
+        <v>7.6470588235294124E-2</v>
+      </c>
+      <c r="H36">
+        <v>0.70588235294117652</v>
+      </c>
+      <c r="I36">
+        <f>10000*G36</f>
+        <v>764.70588235294122</v>
+      </c>
+      <c r="J36">
+        <f>10000*H36</f>
+        <v>7058.8235294117649</v>
+      </c>
+      <c r="L36">
+        <v>0.11764705882352941</v>
+      </c>
+      <c r="M36">
+        <v>-0.39999999999999997</v>
+      </c>
+      <c r="N36">
+        <f>10000*L36</f>
+        <v>1176.4705882352941</v>
+      </c>
+      <c r="O36">
+        <f>10000*M36</f>
+        <v>-3999.9999999999995</v>
+      </c>
+      <c r="Q36">
+        <v>7.0588235294117646E-2</v>
+      </c>
+      <c r="R36">
+        <v>-0.94117647058823528</v>
+      </c>
+      <c r="S36">
+        <f>10000*Q36</f>
+        <v>705.88235294117646</v>
+      </c>
+      <c r="T36">
+        <f>10000*R36</f>
+        <v>-9411.7647058823532</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="C37">
+        <v>0.82352941176470584</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ref="D37:D43" si="11">10000*B37</f>
+        <v>588.23529411764707</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ref="E37:E43" si="12">10000*C37</f>
+        <v>8235.2941176470576</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0.70588235294117652</v>
+      </c>
+      <c r="I37">
+        <f>10000*G37</f>
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <f>10000*H37</f>
+        <v>7058.8235294117649</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>-0.39999999999999997</v>
+      </c>
+      <c r="N37">
+        <f>10000*L37</f>
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <f>10000*M37</f>
+        <v>-3999.9999999999995</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>-0.94117647058823528</v>
+      </c>
+      <c r="S37">
+        <f>10000*Q37</f>
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <f>10000*R37</f>
+        <v>-9411.7647058823532</v>
+      </c>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>7.6470588235294124E-2</v>
+      </c>
+      <c r="C38">
+        <v>0.70588235294117652</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="11"/>
+        <v>764.70588235294122</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="12"/>
+        <v>7058.8235294117649</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>8.8235294117647065E-2</v>
+      </c>
+      <c r="C39">
+        <v>0.58823529411764708</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="11"/>
+        <v>882.35294117647061</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="12"/>
+        <v>5882.3529411764712</v>
+      </c>
+      <c r="G39" t="s">
+        <v>12</v>
+      </c>
+      <c r="L39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>-8.8235294117647106E-2</v>
+      </c>
+      <c r="C40">
+        <v>0.58823529411764708</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="11"/>
+        <v>-882.35294117647106</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="12"/>
+        <v>5882.3529411764712</v>
+      </c>
+      <c r="G40">
+        <v>0.10588235294117647</v>
+      </c>
+      <c r="H40">
+        <v>0.44117647058823528</v>
+      </c>
+      <c r="I40">
+        <f>10000*G40</f>
+        <v>1058.8235294117646</v>
+      </c>
+      <c r="J40">
+        <f>10000*H40</f>
+        <v>4411.7647058823532</v>
+      </c>
+      <c r="L40">
+        <v>0.10588235294117647</v>
+      </c>
+      <c r="M40">
+        <v>-0.49411764705882355</v>
+      </c>
+      <c r="N40">
+        <f>10000*L40</f>
+        <v>1058.8235294117646</v>
+      </c>
+      <c r="O40">
+        <f>10000*M40</f>
+        <v>-4941.1764705882351</v>
+      </c>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>-7.6470588235294096E-2</v>
+      </c>
+      <c r="C41">
+        <v>0.70588235294117652</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="11"/>
+        <v>-764.70588235294099</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="12"/>
+        <v>7058.8235294117649</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0.44117647058823528</v>
+      </c>
+      <c r="I41">
+        <f>10000*G41</f>
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <f>10000*H41</f>
+        <v>4411.7647058823532</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>-0.49411764705882355</v>
+      </c>
+      <c r="N41">
+        <f>10000*L41</f>
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <f>10000*M41</f>
+        <v>-4941.1764705882351</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>-5.8823529411764698E-2</v>
+      </c>
+      <c r="C42">
+        <v>0.82352941176470584</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="11"/>
+        <v>-588.23529411764696</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="12"/>
+        <v>8235.2941176470576</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0.9</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="12"/>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>8.8235294117647065E-2</v>
+      </c>
+      <c r="C46">
+        <v>0.58823529411764708</v>
+      </c>
+      <c r="D46">
+        <f>10000*B46</f>
+        <v>882.35294117647061</v>
+      </c>
+      <c r="E46">
+        <f>10000*C46</f>
+        <v>5882.3529411764712</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>0.10588235294117647</v>
+      </c>
+      <c r="C47">
+        <v>0.44117647058823528</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ref="D47:D54" si="13">10000*B47</f>
+        <v>1058.8235294117646</v>
+      </c>
+      <c r="E47">
+        <f t="shared" ref="E47:E54" si="14">10000*C47</f>
+        <v>4411.7647058823532</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>0.11764705882352941</v>
+      </c>
+      <c r="C48">
+        <v>-0.39999999999999997</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="13"/>
+        <v>1176.4705882352941</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="14"/>
+        <v>-3999.9999999999995</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>0.10588235294117647</v>
+      </c>
+      <c r="C49">
+        <v>-0.49411764705882355</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="13"/>
+        <v>1058.8235294117646</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="14"/>
+        <v>-4941.1764705882351</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>-0.105882352941176</v>
+      </c>
+      <c r="C50">
+        <v>-0.49411764705882355</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="13"/>
+        <v>-1058.8235294117599</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="14"/>
+        <v>-4941.1764705882351</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>-0.11764705882352899</v>
+      </c>
+      <c r="C51">
+        <v>-0.39999999999999997</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="13"/>
+        <v>-1176.4705882352901</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="14"/>
+        <v>-3999.9999999999995</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>-0.105882352941176</v>
+      </c>
+      <c r="C52">
+        <v>0.44117647058823528</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="13"/>
+        <v>-1058.8235294117599</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="14"/>
+        <v>4411.7647058823532</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>-8.8235294117647106E-2</v>
+      </c>
+      <c r="C53">
+        <v>0.58823529411764708</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="13"/>
+        <v>-882.35294117647106</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="14"/>
+        <v>5882.3529411764712</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>8.8235294117647065E-2</v>
+      </c>
+      <c r="C54">
+        <v>0.58823529411764708</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="13"/>
+        <v>882.35294117647061</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="14"/>
+        <v>5882.3529411764712</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>0.10588235294117647</v>
+      </c>
+      <c r="C57">
+        <v>-0.49411764705882355</v>
+      </c>
+      <c r="D57">
+        <f>10000*B57</f>
+        <v>1058.8235294117646</v>
+      </c>
+      <c r="E57">
+        <f>10000*C57</f>
+        <v>-4941.1764705882351</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>7.0588235294117646E-2</v>
+      </c>
+      <c r="C58">
+        <v>-0.94117647058823528</v>
+      </c>
+      <c r="D58">
+        <f t="shared" ref="D58:D61" si="15">10000*B58</f>
+        <v>705.88235294117646</v>
+      </c>
+      <c r="E58">
+        <f t="shared" ref="E58:E61" si="16">10000*C58</f>
+        <v>-9411.7647058823532</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>-7.0588235294117604E-2</v>
+      </c>
+      <c r="C59">
+        <v>-0.94117647058823528</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="15"/>
+        <v>-705.88235294117601</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="16"/>
+        <v>-9411.7647058823532</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>-0.105882352941176</v>
+      </c>
+      <c r="C60">
+        <v>-0.49411764705882355</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="15"/>
+        <v>-1058.8235294117599</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="16"/>
+        <v>-4941.1764705882351</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>0.10588235294117647</v>
+      </c>
+      <c r="C61">
+        <v>-0.49411764705882355</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="15"/>
+        <v>1058.8235294117646</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="16"/>
+        <v>-4941.1764705882351</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>7.0588235294117646E-2</v>
+      </c>
+      <c r="C64">
+        <v>-0.94117647058823528</v>
+      </c>
+      <c r="D64">
+        <f>10000*B64</f>
+        <v>705.88235294117646</v>
+      </c>
+      <c r="E64">
+        <f>10000*C64</f>
+        <v>-9411.7647058823532</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>7.0588235294117646E-2</v>
+      </c>
+      <c r="C65">
+        <v>-1</v>
+      </c>
+      <c r="D65">
+        <f t="shared" ref="D65:D68" si="17">10000*B65</f>
+        <v>705.88235294117646</v>
+      </c>
+      <c r="E65">
+        <f t="shared" ref="E65:E68" si="18">10000*C65</f>
+        <v>-10000</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>-7.0588235294117604E-2</v>
+      </c>
+      <c r="C66">
+        <v>-1</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="17"/>
+        <v>-705.88235294117601</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="18"/>
+        <v>-10000</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>-7.0588235294117604E-2</v>
+      </c>
+      <c r="C67">
+        <v>-0.94117647058823528</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="17"/>
+        <v>-705.88235294117601</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="18"/>
+        <v>-9411.7647058823532</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>7.0588235294117646E-2</v>
+      </c>
+      <c r="C68">
+        <v>-0.94117647058823528</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="17"/>
+        <v>705.88235294117646</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="18"/>
+        <v>-9411.7647058823532</v>
       </c>
     </row>
   </sheetData>
